--- a/biology/Botanique/Ceratopetalum_apetalum/Ceratopetalum_apetalum.xlsx
+++ b/biology/Botanique/Ceratopetalum_apetalum/Ceratopetalum_apetalum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratopetalum apetalum est une espèce d'arbre de la famille des Cunoniaceae. Il est de taille moyenne au bois dur, au tronc droit doucement parfumé, à l'écorce grisâtre. Il pousse habituellement à une hauteur de 15 à 25 mètres, mais des spécimens exceptionnels peuvent atteindre 40 mètres de haut et vivent depuis des siècles.
 Il est originaire d'Australie orientale dans les forêts ombrophiles du centre et du nord du littoral de la Nouvelle-Galles du Sud et du sud du Queensland où on le trouve souvent sur les sols de moindre qualité dans les ravines et les ruisseaux et il pousse souvent en peuplements presque purs.
